--- a/src/test/resources/testdata/HRM.xlsx
+++ b/src/test/resources/testdata/HRM.xlsx
@@ -4,19 +4,21 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="8355" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="13035" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
-    <sheet name="User Management" sheetId="2" r:id="rId2"/>
-    <sheet name="Employee" sheetId="3" r:id="rId3"/>
+    <sheet name="Job Title" sheetId="4" r:id="rId2"/>
+    <sheet name="Job Category" sheetId="5" r:id="rId3"/>
+    <sheet name="User Management" sheetId="2" r:id="rId4"/>
+    <sheet name="Employee" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="36">
   <si>
     <t>Username</t>
   </si>
@@ -36,6 +38,21 @@
     <t>China@2000</t>
   </si>
   <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>QA Engineer 2</t>
+  </si>
+  <si>
+    <t>Software Engineer 2</t>
+  </si>
+  <si>
+    <t>IT</t>
+  </si>
+  <si>
     <t>Role</t>
   </si>
   <si>
@@ -63,6 +80,9 @@
     <t>China@2001</t>
   </si>
   <si>
+    <t>TC</t>
+  </si>
+  <si>
     <t>First name</t>
   </si>
   <si>
@@ -81,16 +101,31 @@
     <t>Gender</t>
   </si>
   <si>
+    <t>AddNew</t>
+  </si>
+  <si>
     <t>FPT</t>
   </si>
   <si>
     <t>Soft</t>
   </si>
   <si>
+    <t>Male</t>
+  </si>
+  <si>
     <t>Town</t>
   </si>
   <si>
-    <t>Male</t>
+    <t>Female</t>
+  </si>
+  <si>
+    <t>Mainflow</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>Product</t>
   </si>
 </sst>
 </file>
@@ -99,9 +134,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_-* #,##0.00\ &quot;₫&quot;_-;\-* #,##0.00\ &quot;₫&quot;_-;_-* &quot;-&quot;??\ &quot;₫&quot;_-;_-@_-"/>
-    <numFmt numFmtId="179" formatCode="_-* #,##0\ &quot;₫&quot;_-;\-* #,##0\ &quot;₫&quot;_-;_-* &quot;-&quot;\ &quot;₫&quot;_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-* #,##0.00\ &quot;₫&quot;_-;\-* #,##0.00\ &quot;₫&quot;_-;_-* &quot;-&quot;??\ &quot;₫&quot;_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-* #,##0\ &quot;₫&quot;_-;\-* #,##0\ &quot;₫&quot;_-;_-* &quot;-&quot;\ &quot;₫&quot;_-;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -120,29 +155,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -163,31 +178,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -205,14 +197,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -234,13 +218,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -249,9 +226,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -259,6 +257,43 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -279,6 +314,156 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -291,175 +476,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -475,9 +510,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -487,51 +524,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -560,166 +552,210 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="49">
@@ -1043,7 +1079,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A1" sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="3" outlineLevelCol="1"/>
@@ -1053,10 +1089,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1090,9 +1126,82 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="18.8095238095238" customWidth="1"/>
+    <col min="2" max="2" width="13.8666666666667" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="19.5714285714286" customWidth="1"/>
+    <col min="2" max="2" width="13.6666666666667" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
       <selection activeCell="F2" sqref="F2:F3"/>
     </sheetView>
   </sheetViews>
@@ -1105,23 +1214,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="A1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>9</v>
+      <c r="F1" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -1129,10 +1238,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D2" t="s">
         <v>4</v>
@@ -1149,19 +1258,19 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E3" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F3" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -1170,62 +1279,115 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="3" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="12.0952380952381" customWidth="1"/>
-    <col min="2" max="2" width="13.1904761904762" customWidth="1"/>
-    <col min="3" max="3" width="17.0571428571429" customWidth="1"/>
-    <col min="4" max="4" width="15.1238095238095" customWidth="1"/>
-    <col min="5" max="5" width="14.8666666666667" customWidth="1"/>
+    <col min="1" max="1" width="10.4095238095238" customWidth="1"/>
+    <col min="2" max="2" width="12.0952380952381" customWidth="1"/>
+    <col min="3" max="3" width="13.1904761904762" customWidth="1"/>
+    <col min="4" max="4" width="17.0571428571429" customWidth="1"/>
+    <col min="5" max="5" width="15.1238095238095" customWidth="1"/>
+    <col min="6" max="6" width="14.8666666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F1" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="B1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2">
+        <v>29</v>
+      </c>
+      <c r="D2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2">
         <v>11</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>12345</v>
       </c>
-      <c r="F2" t="s">
-        <v>24</v>
+      <c r="G2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3">
+        <v>12</v>
+      </c>
+      <c r="F3">
+        <v>654321</v>
+      </c>
+      <c r="G3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>10001</v>
+      </c>
+      <c r="G4" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
